--- a/biology/Botanique/Centurion_(arbre)/Centurion_(arbre).xlsx
+++ b/biology/Botanique/Centurion_(arbre)/Centurion_(arbre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Centurion est le nom donné à un spécimen exceptionnel d'Eucalyptus regnans ; il s'agit du plus grand spécimen de cette espèce connu dans le monde depuis 2008. C'est aussi le plus grand arbre connu d'Australie à la même date. Il est situé dans le sud de la Tasmanie. Il mesure 100 mètres de haut[1], d'où son nom.
+Centurion est le nom donné à un spécimen exceptionnel d'Eucalyptus regnans ; il s'agit du plus grand spécimen de cette espèce connu dans le monde depuis 2008. C'est aussi le plus grand arbre connu d'Australie à la même date. Il est situé dans le sud de la Tasmanie. Il mesure 100 mètres de haut, d'où son nom.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Découverte et dimensions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La découverte de Centurion a été annoncée en 2008[2]. Il a été trouvé par des employés forestiers de la compagnie Forestry Tasmania, dans une forêt domaniale près du fleuve Huon, à 4 km au nord-ouest du parc d'attraction Tahune Airwalket à 80 km au sud-ouest d'Hobart[2]. 
-Son emplacement demeure secret pour le préserver du vandalisme, il se situe hors de toute réserve naturelle, mais il a rapidement fait l'objet d'une mesure de protection[3]. 
-Sa hauteur a été mesurée à 99,8 mètres par un dispositif laser appelé LiDAR[4]. Sa hauteur réelle pourrait être supérieure à 100 mètres car le LiDAR a tendance à sous-estimer les mesures. De plus, le sommet de l'arbre semble avoir été cassé par des aléas naturels ; il est en cours de repousse[3]. Le diamètre de son tronc est 405 centimètres[2],[3].
-Le nom de « Centurion » était initialement destiné au 100e arbre géant qui serait découvert dans ce secteur (cf infra). Il a finalement été donné à cet arbre du fait de sa hauteur très proche voire supérieure à 100 mètres[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La découverte de Centurion a été annoncée en 2008. Il a été trouvé par des employés forestiers de la compagnie Forestry Tasmania, dans une forêt domaniale près du fleuve Huon, à 4 km au nord-ouest du parc d'attraction Tahune Airwalket à 80 km au sud-ouest d'Hobart. 
+Son emplacement demeure secret pour le préserver du vandalisme, il se situe hors de toute réserve naturelle, mais il a rapidement fait l'objet d'une mesure de protection. 
+Sa hauteur a été mesurée à 99,8 mètres par un dispositif laser appelé LiDAR. Sa hauteur réelle pourrait être supérieure à 100 mètres car le LiDAR a tendance à sous-estimer les mesures. De plus, le sommet de l'arbre semble avoir été cassé par des aléas naturels ; il est en cours de repousse. Le diamètre de son tronc est 405 centimètres,.
+Le nom de « Centurion » était initialement destiné au 100e arbre géant qui serait découvert dans ce secteur (cf infra). Il a finalement été donné à cet arbre du fait de sa hauteur très proche voire supérieure à 100 mètres.
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Arbres géants voisins</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Tasmanie abrite plusieurs autres arbres dits « géants » (giant trees)[5]. 
-Le précédent record de hauteur pour cette espèce d'eucalyptus (Eucalyptus regnans) était de 97 mètres. Ce spécimen avait été baptisé « Icarus Dream » (Rêve d'Icare). Il est toujours vivant en 2015 et se situe dans la Styx Valley (en), à environ 100 kilomètres au nord-ouest d'Hobart[2].
-À proximité de Centurion et découvert en même temps que ce dernier, se trouve un autre spécimen de la même espèce, dénommé Triarius. Sa hauteur a été mesurée à  86,5 mètres[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Tasmanie abrite plusieurs autres arbres dits « géants » (giant trees). 
+Le précédent record de hauteur pour cette espèce d'eucalyptus (Eucalyptus regnans) était de 97 mètres. Ce spécimen avait été baptisé « Icarus Dream » (Rêve d'Icare). Il est toujours vivant en 2015 et se situe dans la Styx Valley (en), à environ 100 kilomètres au nord-ouest d'Hobart.
+À proximité de Centurion et découvert en même temps que ce dernier, se trouve un autre spécimen de la même espèce, dénommé Triarius. Sa hauteur a été mesurée à  86,5 mètres.
 </t>
         </is>
       </c>
